--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N2">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P2">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q2">
-        <v>2.809929865068964</v>
+        <v>6.219565568299556</v>
       </c>
       <c r="R2">
-        <v>2.809929865068964</v>
+        <v>55.976090114696</v>
       </c>
       <c r="S2">
-        <v>0.0002513098863933758</v>
+        <v>0.0004864114380310872</v>
       </c>
       <c r="T2">
-        <v>0.0002513098863933758</v>
+        <v>0.0004864114380310872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N3">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P3">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q3">
-        <v>62.25730016958248</v>
+        <v>75.72390691826578</v>
       </c>
       <c r="R3">
-        <v>62.25730016958248</v>
+        <v>681.515162264392</v>
       </c>
       <c r="S3">
-        <v>0.005568066031566973</v>
+        <v>0.005922113699577264</v>
       </c>
       <c r="T3">
-        <v>0.005568066031566973</v>
+        <v>0.005922113699577264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N4">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P4">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q4">
-        <v>43.96879607747613</v>
+        <v>68.13763631440177</v>
       </c>
       <c r="R4">
-        <v>43.96879607747613</v>
+        <v>613.238726829616</v>
       </c>
       <c r="S4">
-        <v>0.003932408877690204</v>
+        <v>0.005328816828084144</v>
       </c>
       <c r="T4">
-        <v>0.003932408877690204</v>
+        <v>0.005328816828084145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H5">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I5">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J5">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N5">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P5">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q5">
-        <v>278.7298974013773</v>
+        <v>510.3064335677844</v>
       </c>
       <c r="R5">
-        <v>278.7298974013773</v>
+        <v>4592.75790211006</v>
       </c>
       <c r="S5">
-        <v>0.02492858619752713</v>
+        <v>0.0399093607845162</v>
       </c>
       <c r="T5">
-        <v>0.02492858619752713</v>
+        <v>0.03990936078451621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N6">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P6">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q6">
-        <v>6175.588616810044</v>
+        <v>6213.037944681402</v>
       </c>
       <c r="R6">
-        <v>6175.588616810044</v>
+        <v>55917.34150213261</v>
       </c>
       <c r="S6">
-        <v>0.5523221390668648</v>
+        <v>0.4859009344024712</v>
       </c>
       <c r="T6">
-        <v>0.5523221390668648</v>
+        <v>0.4859009344024713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N7">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P7">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q7">
-        <v>4361.467583902212</v>
+        <v>5590.595323339861</v>
       </c>
       <c r="R7">
-        <v>4361.467583902212</v>
+        <v>50315.35791005876</v>
       </c>
       <c r="S7">
-        <v>0.390073765414766</v>
+        <v>0.4372217771182826</v>
       </c>
       <c r="T7">
-        <v>0.390073765414766</v>
+        <v>0.4372217771182827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H8">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I8">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J8">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N8">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P8">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q8">
-        <v>2.2719566640778</v>
+        <v>5.454433692768445</v>
       </c>
       <c r="R8">
-        <v>2.2719566640778</v>
+        <v>49.089903234916</v>
       </c>
       <c r="S8">
-        <v>0.0002031955239302928</v>
+        <v>0.000426573031027644</v>
       </c>
       <c r="T8">
-        <v>0.0002031955239302928</v>
+        <v>0.0004265730310276441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H9">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I9">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J9">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N9">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P9">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q9">
-        <v>50.33787133484322</v>
+        <v>66.40834069637023</v>
       </c>
       <c r="R9">
-        <v>50.33787133484322</v>
+        <v>597.675066267332</v>
       </c>
       <c r="S9">
-        <v>0.004502035756729941</v>
+        <v>0.005193574396902965</v>
       </c>
       <c r="T9">
-        <v>0.004502035756729941</v>
+        <v>0.005193574396902966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N10">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O10">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P10">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q10">
-        <v>35.55078028869166</v>
+        <v>59.75533422352623</v>
       </c>
       <c r="R10">
-        <v>35.55078028869166</v>
+        <v>537.7980080117361</v>
       </c>
       <c r="S10">
-        <v>0.003179532224847075</v>
+        <v>0.004673264994236608</v>
       </c>
       <c r="T10">
-        <v>0.003179532224847075</v>
+        <v>0.00467326499423661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H11">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I11">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J11">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.171208628559942</v>
+        <v>0.3116673333333334</v>
       </c>
       <c r="N11">
-        <v>0.171208628559942</v>
+        <v>0.935002</v>
       </c>
       <c r="O11">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="P11">
-        <v>0.02577065549123519</v>
+        <v>0.0414413620607491</v>
       </c>
       <c r="Q11">
-        <v>4.333404253103105</v>
+        <v>7.915142036304444</v>
       </c>
       <c r="R11">
-        <v>4.333404253103105</v>
+        <v>71.23627832673999</v>
       </c>
       <c r="S11">
-        <v>0.0003875638833843936</v>
+        <v>0.0006190168071741635</v>
       </c>
       <c r="T11">
-        <v>0.0003875638833843936</v>
+        <v>0.0006190168071741635</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H12">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I12">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J12">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79332847854452</v>
+        <v>3.794584666666667</v>
       </c>
       <c r="N12">
-        <v>3.79332847854452</v>
+        <v>11.383754</v>
       </c>
       <c r="O12">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="P12">
-        <v>0.5709791744020455</v>
+        <v>0.5045532214096876</v>
       </c>
       <c r="Q12">
-        <v>96.01166658832747</v>
+        <v>96.36774019344222</v>
       </c>
       <c r="R12">
-        <v>96.01166658832747</v>
+        <v>867.3096617409799</v>
       </c>
       <c r="S12">
-        <v>0.008586933546883762</v>
+        <v>0.00753659891073614</v>
       </c>
       <c r="T12">
-        <v>0.008586933546883762</v>
+        <v>0.00753659891073614</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H13">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I13">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J13">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.67901251537881</v>
+        <v>3.414430666666667</v>
       </c>
       <c r="N13">
-        <v>2.67901251537881</v>
+        <v>10.243292</v>
       </c>
       <c r="O13">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295632</v>
       </c>
       <c r="P13">
-        <v>0.4032501701067193</v>
+        <v>0.4540054165295633</v>
       </c>
       <c r="Q13">
-        <v>67.80758847206383</v>
+        <v>86.71330232378222</v>
       </c>
       <c r="R13">
-        <v>67.80758847206383</v>
+        <v>780.4197209140399</v>
       </c>
       <c r="S13">
-        <v>0.006064463589415927</v>
+        <v>0.006781557588959864</v>
       </c>
       <c r="T13">
-        <v>0.006064463589415927</v>
+        <v>0.006781557588959865</v>
       </c>
     </row>
   </sheetData>
